--- a/CORTE I/Solver_I/Solver_I.xlsx
+++ b/CORTE I/Solver_I/Solver_I.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\GITHUB\OPTIMIZACION_LINEAL\CORTE I\Solver_I\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F762BDAB-88BF-41B6-92F1-BFC54F26FB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="T5P5" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +24,184 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+  <si>
+    <t xml:space="preserve">PROBLEMA 5. REFINERÍAS </t>
+  </si>
+  <si>
+    <t>Tres refinerías con capacidades diarias de 6, 5 y 8 millones de galones, respectivamente, abastecen tres áreas de distribución con demandas diarias de 4, 8 y 7 millones de galones, respectivamente. La gasolina se transporta a las tres áreas de distribución a través de una red de oleoductos. El costo de transporte es de 10 centavos por 1000 galones por milla de oleoducto. La Tabla presenta la distancia en millas entre las refinerías y las áreas de distribución. La refinería 1 no está conectada al área de distribución 3.</t>
+  </si>
+  <si>
+    <t>Primal</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C_B</t>
+  </si>
+  <si>
+    <t>C_N</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Z_max= 600 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 800 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 0 S1 + 0 S2 + 0S3 - 1000000 A1</t>
+    </r>
+  </si>
+  <si>
+    <t>40 X1 + 50 X2 &gt;= 400</t>
+  </si>
+  <si>
+    <t>X1 + X2 &lt;= 9</t>
+  </si>
+  <si>
+    <t>X1 &lt;= 8</t>
+  </si>
+  <si>
+    <t>X2 &lt;= 10</t>
+  </si>
+  <si>
+    <t>40 X1 + 50 X2  - S1  + A1 = 400</t>
+  </si>
+  <si>
+    <t>X1 + X2 + S2 = 9</t>
+  </si>
+  <si>
+    <t>X1 + S3 = 8</t>
+  </si>
+  <si>
+    <t>MINIMIZAR¡¡</t>
+  </si>
+  <si>
+    <t>X11: Galones enviados de Refineria 1 a Area 1</t>
+  </si>
+  <si>
+    <t>X12: Galones enviados de Refineria 1 a Area 2</t>
+  </si>
+  <si>
+    <t>X13: Galones enviados de Refineria 1 a Area 3</t>
+  </si>
+  <si>
+    <t>X21: Galones enviados de Refineria 2 a Area 1</t>
+  </si>
+  <si>
+    <t>X22: Galones enviados de Refineria 2 a Area 2</t>
+  </si>
+  <si>
+    <t>X23: Galones enviados de Refineria 2 a Area 3</t>
+  </si>
+  <si>
+    <t>X31: Galones enviados de Refineria 3 a Area 1</t>
+  </si>
+  <si>
+    <t>X32: Galones enviados de Refineria 3 a Area 2</t>
+  </si>
+  <si>
+    <t>X33: Galones enviados de Refineria 3 a Area 3</t>
+  </si>
+  <si>
+    <t>Refineria</t>
+  </si>
+  <si>
+    <t>Area de distribucion</t>
+  </si>
+  <si>
+    <t>X11 + X12 = 6</t>
+  </si>
+  <si>
+    <t>X21 + X22 + X23 = 5</t>
+  </si>
+  <si>
+    <t>X31  + X32 + X33 = 8</t>
+  </si>
+  <si>
+    <t>X11 + X21 + X31 = 4</t>
+  </si>
+  <si>
+    <t>X12 + X22 + X32 = 8</t>
+  </si>
+  <si>
+    <t>X13 = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X23 + X33 = 7</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +209,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,12 +257,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +644,509 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46.44140625" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="144" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="Q4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19">
+        <v>1</v>
+      </c>
+      <c r="S5" s="19">
+        <v>2</v>
+      </c>
+      <c r="T5" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>1</v>
+      </c>
+      <c r="R6" s="20">
+        <v>100</v>
+      </c>
+      <c r="S6" s="20">
+        <v>180</v>
+      </c>
+      <c r="T6" s="20"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="19">
+        <v>1</v>
+      </c>
+      <c r="R7" s="20">
+        <v>300</v>
+      </c>
+      <c r="S7" s="20">
+        <v>100</v>
+      </c>
+      <c r="T7" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="19">
+        <v>3</v>
+      </c>
+      <c r="R8" s="20">
+        <v>200</v>
+      </c>
+      <c r="S8" s="20">
+        <v>250</v>
+      </c>
+      <c r="T8" s="20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="12"/>
+      <c r="C22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="9">
+        <v>40</v>
+      </c>
+      <c r="H22" s="9">
+        <v>50</v>
+      </c>
+      <c r="I22" s="9">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="13"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="14"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="11">
+        <v>-600</v>
+      </c>
+      <c r="H27" s="11">
+        <v>-800</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>10000</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="11">
+        <v>10000</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="11">
+        <v>-600</v>
+      </c>
+      <c r="H29" s="11">
+        <v>-800</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="13"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="16"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="Q4:T4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CORTE I/Solver_I/Solver_I.xlsx
+++ b/CORTE I/Solver_I/Solver_I.xlsx
@@ -8,12 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\GITHUB\OPTIMIZACION_LINEAL\CORTE I\Solver_I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F762BDAB-88BF-41B6-92F1-BFC54F26FB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E9ADCE-9049-4CCD-AE25-6A1DCDD6ED96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="T5P5" sheetId="1" r:id="rId1"/>
+    <sheet name="T5P1" sheetId="2" r:id="rId1"/>
+    <sheet name="T5P2" sheetId="3" r:id="rId2"/>
+    <sheet name="T5P3" sheetId="4" r:id="rId3"/>
+    <sheet name="T5P4" sheetId="5" r:id="rId4"/>
+    <sheet name="T5P5" sheetId="1" r:id="rId5"/>
+    <sheet name="T5P6" sheetId="6" r:id="rId6"/>
+    <sheet name="T5P7" sheetId="7" r:id="rId7"/>
+    <sheet name="T5P8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="138">
   <si>
     <t xml:space="preserve">PROBLEMA 5. REFINERÍAS </t>
   </si>
@@ -195,6 +202,294 @@
   </si>
   <si>
     <t xml:space="preserve"> X23 + X33 = 7</t>
+  </si>
+  <si>
+    <t>PROBLEMA 1. ABARROTES B&amp;K</t>
+  </si>
+  <si>
+    <t>La tienda de abarrotes B&amp;K vende tres tipos de refrescos: las marcas Cola A1, Cola A2 y la marca más barata genérica de Cola A3. El precio por lata de A1, A2 y A3 es 80, 70 y 60 centavos, respectivamente. En promedio, la tienda no vende más de 500 latas de todos los refrescos de cola al día. Aunque A1 es una marca reconocida, los clientes tienden a comprar más A2 y A3 porque son más baratos. Se estima que como mínimo se venden 100 latas de A1 al día y que las ventas de A2 y A3 sobrepasan las de A1 por un margen de al menos 4:2.</t>
+  </si>
+  <si>
+    <t>a. ¿Cuántas latas se deben vender de cada refresco?</t>
+  </si>
+  <si>
+    <t>b. ¿Cuál es el total de ingresos por ventas?</t>
+  </si>
+  <si>
+    <t>c. ¿Qué tanto se debe incrementar el precio por lata de A3 para que B&amp;K la venda?</t>
+  </si>
+  <si>
+    <t>d. ¿Qué pasaría si se redujera el precio del tipo de refresco 1 en 5 centavos por lata?</t>
+  </si>
+  <si>
+    <t>e. ¿Cuáles serían los ingresos si la tienda lograra vender 600 latas al día?</t>
+  </si>
+  <si>
+    <t>PROBLEMA 2. BABA FURNITURE COMPANY</t>
+  </si>
+  <si>
+    <t>Baba Furniture Company emplea cuatro carpinteros durante 10 días para ensamblar mesas y sillas. Se requieren dos horas-hombre para ensamblar una mesa y 5 horas-hombre para ensamblar una silla. Los clientes suelen comprar una mesa y de cuatro a seis sillas. Los precios son $135 por mesa y $50 por silla. La compañía opera un turno de ocho horas al día.</t>
+  </si>
+  <si>
+    <t>a. Determine la combinación de producción óptima para los 10 días.</t>
+  </si>
+  <si>
+    <t>c. ¿qué pasaría el precio unitario de una silla se reduce en un 10%?</t>
+  </si>
+  <si>
+    <t>d. ¿Qué pasaría si el precio de unitario de una mesa fuera $150?</t>
+  </si>
+  <si>
+    <t>e. ¿Qué pasaría si sólo se pudieran tener 3 carpinteros durante los 10 días?</t>
+  </si>
+  <si>
+    <t>PROBLEMA 3. ELECTRA</t>
+  </si>
+  <si>
+    <t>Electra produce cuatro tipos de motores eléctricos, cada uno en una línea de ensamble distinta. Las capacidades respectivas de las líneas son 500, 500, 800 y 750 motores por día. El motor tipo 1 utiliza 8 unidades de un determinado componente electrónico; el motor tipo 2 utiliza 5 unidades; el motor tipo 3 utiliza 4 unidades, y el motor tipo 4 utiliza 6 unidades. El proveedor del componente puede surtir 8000 piezas por día. Los precios de venta de los tipos de motor respectivos son $60, $40, $25 y $30.</t>
+  </si>
+  <si>
+    <t>b. ¿A cuánto ascienden los ingresos por ventas?</t>
+  </si>
+  <si>
+    <t>a. Determine la combinación óptima de producción diaria.</t>
+  </si>
+  <si>
+    <t>c. El programa de producción actual satisface las necesidades de Electra. Sin embargo, debido a la competencia, es posible que Electra tenga que reducir el precio del motor tipo 2. ¿Cuál es la reducción máxima que puede efectuarse sin que cambie el programa de producción actual?</t>
+  </si>
+  <si>
+    <t>d. ¿Qué pasaría si Electra reduce en 25% el precio del motor tipo 3?</t>
+  </si>
+  <si>
+    <t>e. ¿Qué pasaría si Electra reduce en 10% el precio del motor tipo 2?</t>
+  </si>
+  <si>
+    <t>f. ¿Qué pasaría si se pudiera aumentar en 120 unidades la capacidad de la línea 2?</t>
+  </si>
+  <si>
+    <t>g. ¿Cuánto estaría dispuesto a pagar por aumentar una unidad de capacidad de ensamblaje de cada línea?</t>
+  </si>
+  <si>
+    <t>h. Actualmente el motor tipo 4 ya no se produce. ¿Qué tanto debe incrementarse su precio para incluirlo en el programa de producción?</t>
+  </si>
+  <si>
+    <t>PROBLEMA 4. MTV STEEL COMPANY</t>
+  </si>
+  <si>
+    <t>MTV Steel Company produce tres tamaños de tubos: A, B y C, que son vendidos, respectivamente en $10, $12 y $9 por pie. Para fabricar cada pie del tubo A se requieren 0.5 minutos de tiempo de procesamiento sobre un tipo particular de máquina de modelado. Cada pie de tubo B requiere 0.45 minutos y cada pie del tubo C requiere 0.6 minutos. Después de la producción, cada pie de tubo, sin importar el tipo, requiere 1 onza de material de soldar. El costo total se estima en $3, $4 y $4 por pie de los tubos A, B, y C respectivamente.</t>
+  </si>
+  <si>
+    <t>Para la siguiente semana, MTV Steel ha recibido pedidos excepcionalmente grandes que totalizan 2000 pies del tubo A, 4000 pies del tubo B y 5000 pies del tubo C, por tanto se deben producir exactamente esas cantidades. Como sólo se dispone de 40 horas de tiempo de máquina esta semana y sólo se tienen en inventario 5500 onzas de material de soldar, el departamento de producción no podrá satisfacer esta demanda, que requiere un total de 97 horas de tiempo de máquina y 11000 onzas de material de soldar. No se espera que continúe este alto nivel de demanda. En vez de expandir la capacidad de las instalaciones de producción, la gerencia de MTV Steel está considerando la compra de algunos de estos tubos a proveedores de Japón a un costo de entrega de $6 por pie del tubo A, $6 por pie del tubo B y $7 por pie del tubo C. Estos diversos datos de resumen en la Tabla. Como gerente del departamento de producción, se le ha pedido hacer recomendaciones respecto a la cantidad de producción de cada tipo de tubo y la cantidad de compra a Japón para satisfacer la demanda y maximizar las ganancias de la compañía.</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>PRECIO DE VENTA ($/ft)</t>
+  </si>
+  <si>
+    <t>DEMANDA (ft)</t>
+  </si>
+  <si>
+    <t>TIEMPO DE MÁQUINA (min/ft)</t>
+  </si>
+  <si>
+    <t>MATERIAL PARA SOLDAR (oz/ ft)</t>
+  </si>
+  <si>
+    <t>COSTO DE PRODUCCIÓN ($/ft)</t>
+  </si>
+  <si>
+    <t>COSTO DE COMPRA ($/ft)</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>a. Indique cuál es el programa de producción óptimo por día.</t>
+  </si>
+  <si>
+    <t>b. ¿Cuál es el beneficio obtenido?</t>
+  </si>
+  <si>
+    <t>c. ¿Cuánto es lo máximo que pagaría por 10 horas adicionales de trabajo de la máquina?</t>
+  </si>
+  <si>
+    <t>d. ¿En cuánto debería aumentar el precio de venta de un pie de tubo B para que fuera rentable producirlo?</t>
+  </si>
+  <si>
+    <t>PROBLEMA 6. VIVIENDAS ERSTVILLE</t>
+  </si>
+  <si>
+    <t>La ciudad de Erstville enfrenta un grave recorte de presupuesto. Buscando una solución a largo plazo para mejorar la base tributaria, el consejo de la ciudad propone la demolición de un área de viviendas dentro de la ciudad, y su reemplazo con un moderno desarrollo. El proyecto implica dos fases: (1) demolición de casas populares para obtener el terreno para el nuevo desarrollo, y (2) construcción del nuevo desarrollo. A continuación, un resumen de la situación.</t>
+  </si>
+  <si>
+    <t>Se pueden demoler 300 casas populares. Cada casa ocupa un lote de 0.25 acres. El costo de demoler una casa es de $2000.</t>
+  </si>
+  <si>
+    <t>Los tamaños de los lotes para construir casas unifamiliares, dobles, triples y cuádruples son de 0.18, 0.28, 0.4 y 0.5 acres, respectivamente. Las calles, los espacios abiertos y el área para la instalación de servicios, ocupan 15% del área disponible.</t>
+  </si>
+  <si>
+    <t>En el nuevo desarrollo, las suma de las unidades triples y cuádruples deben ser al menos 25% del total de unidades. Las unidades sencillas deben ser al menos 20% de todas las unidades, y las unidades dobles deben ser al menos un 10% del total de unidades.</t>
+  </si>
+  <si>
+    <t>El impuesto por unidad aplicado a las unidades sencillas, dobles, triples y cuádruples es de $1000, $1900, $2700 y $3400, respectivamente.</t>
+  </si>
+  <si>
+    <t>El costo de construcción por unidad de las casas sencillas, dobles, triples y cuádruples es de $50000, $70000, $130000 y $160000, respectivamente. El financiamiento a través de un banco local está limitado a $15 millones.</t>
+  </si>
+  <si>
+    <t>PROBLEMA 7. BLUBBERMAID INC</t>
+  </si>
+  <si>
+    <t>BlubberMaid Inc. Fabrica tres productos de caucho: Airtex (material esponjoso), Extendex (material elástico) y Resistex (material rígido). Los tres productos requieren los mismos tres polímeros químicos y una base. La cantidad de cada ingrediente usada por libra del producto final se muestra en la siguiente tabla:</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>POLÍMERO A</t>
+  </si>
+  <si>
+    <t>Ingrediente (oz de ingrediente / lb de producto)</t>
+  </si>
+  <si>
+    <t>POLÍMERO B</t>
+  </si>
+  <si>
+    <t>POLÍMERO C</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>Airtex</t>
+  </si>
+  <si>
+    <t>Extendex</t>
+  </si>
+  <si>
+    <t>Resistex</t>
+  </si>
+  <si>
+    <t>BlubberMaid, Inc. Tiene el compromiso de producir al menos 1000 libras de Airtex, 500 libras de Extendex y 400 libras de Resistex para la próxima semana, pero la gerencia de la compañía sabe que puede vender más de cada uno de los tres productos. Los inventarios actuales de los ingredientes son 500 libras del polímero A, 425 libras del polímero B, 650 libras de polímero C y 1100 libras de la base. Cada libra de Airtex produce a la compañía una ganancia de $7, cada libra de Extendex una ganancia de $7 y cada libra de Resistex una ganancia de $6. Como gerente del departamento de producción, usted necesita determinar un plan de producción, óptimo para esta.</t>
+  </si>
+  <si>
+    <t>a. ¿Cuánto se debe producir de cada tipo de caucho?</t>
+  </si>
+  <si>
+    <t>b. ¿Cuál es la ganancia total?</t>
+  </si>
+  <si>
+    <t>c. ¿Qué pasaría si la demanda de Airtex fuera 900 libras?</t>
+  </si>
+  <si>
+    <t>d. ¿Qué pasaría si la ganancia de Resistex fuera $4 por libra?</t>
+  </si>
+  <si>
+    <t>e. ¿Cuántas onzas quedan disponibles de cada polímero?</t>
+  </si>
+  <si>
+    <t>PROBLEMA 8. ALEACIONES</t>
+  </si>
+  <si>
+    <t>Se fabrican dos aleaciones A y B con cuatro metales (I, II, III y IV) de acuerdo con las siguientes especificaciones:</t>
+  </si>
+  <si>
+    <t>Especificaciones de la composición de la aleación</t>
+  </si>
+  <si>
+    <t>Aleación</t>
+  </si>
+  <si>
+    <t>Precio de venta ($/tonelada)</t>
+  </si>
+  <si>
+    <t>Máximo 80% de I</t>
+  </si>
+  <si>
+    <t>Máximo 30% de II</t>
+  </si>
+  <si>
+    <t>Entre 20% y 30% de III</t>
+  </si>
+  <si>
+    <t>Mínimo 50% de IV</t>
+  </si>
+  <si>
+    <t>Mínimo 10% de I</t>
+  </si>
+  <si>
+    <t>Entre 40% y 60% de II</t>
+  </si>
+  <si>
+    <t>Mínimo 30% de III</t>
+  </si>
+  <si>
+    <t>Máximo 70% de IV</t>
+  </si>
+  <si>
+    <t>La demanda mínima de aleación A es 500 toneladas y de B 200 toneladas. La disponibilidad y costo por tonelada de cada metal es la siguiente:</t>
+  </si>
+  <si>
+    <t>Disponibilidad (toneladas)</t>
+  </si>
+  <si>
+    <t>Precio compra ($/tonelada)</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Metales</t>
+  </si>
+  <si>
+    <t>Plantear un modelo matemático para maximizar las utilidades.</t>
+  </si>
+  <si>
+    <t>a. Plantear el modelo matemático</t>
+  </si>
+  <si>
+    <t>b. Resolver el modelo matemático por Solver</t>
+  </si>
+  <si>
+    <t>c. Responder las siguientes preguntas solamente con base en el análisis de sensibilidad del Solver.</t>
+  </si>
+  <si>
+    <t>¿Cuál es la utilidad total (coloque las unidades)?</t>
+  </si>
+  <si>
+    <t>¿Cuánto se debe producir de cada aleación (coloque las unidades)?</t>
+  </si>
+  <si>
+    <t>¿Cuánto se utiliza de cada metal para cada aleación?</t>
+  </si>
+  <si>
+    <t>¿Cuánto sobra de cada metal? (coloque las unidades)</t>
+  </si>
+  <si>
+    <t>¿Qué pasaría si se utilizara una tonelada de metal II para producir aleación A?</t>
+  </si>
+  <si>
+    <t>Un proveedor le ofrece 200 toneladas de metal 3 por $200000. ¿Valdría la pena comprar esas 200 toneladas por ese precio? Justifique su respuesta</t>
   </si>
 </sst>
 </file>
@@ -249,7 +544,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -301,11 +596,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -317,9 +636,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -352,9 +668,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -362,8 +675,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,16 +993,336 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A459A3B-EF43-4CC8-A25B-8C04553ABFBF}">
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.44140625" customWidth="1"/>
+    <col min="1" max="1" width="72.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBBA311-C052-4087-97F2-693367741E26}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="64.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836B9A69-14AD-4483-AD64-96459A4071D0}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59C838A-0B34-4D3B-91B4-9908A4BBC65E}">
+  <dimension ref="A1:X12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="51.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="298.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="72" x14ac:dyDescent="0.3">
+      <c r="P4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="V4" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="P5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>10</v>
+      </c>
+      <c r="R5" s="10">
+        <v>2000</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="T5" s="10">
+        <v>1</v>
+      </c>
+      <c r="U5" s="10">
+        <v>3</v>
+      </c>
+      <c r="V5" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>12</v>
+      </c>
+      <c r="R6" s="10">
+        <v>4000</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="10">
+        <v>1</v>
+      </c>
+      <c r="U6" s="10">
+        <v>4</v>
+      </c>
+      <c r="V6" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="P7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>9</v>
+      </c>
+      <c r="R7" s="10">
+        <v>5000</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="T7" s="10">
+        <v>1</v>
+      </c>
+      <c r="U7" s="10">
+        <v>4</v>
+      </c>
+      <c r="V7" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="55.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -673,123 +1342,123 @@
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="O5" s="4"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19">
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17">
         <v>1</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="17">
         <v>2</v>
       </c>
-      <c r="T5" s="19">
+      <c r="T5" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="17">
         <v>1</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="18">
         <v>100</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S6" s="18">
         <v>180</v>
       </c>
-      <c r="T6" s="20"/>
+      <c r="T6" s="18"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="19">
+      <c r="P7" s="22"/>
+      <c r="Q7" s="17">
         <v>1</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="18">
         <v>300</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7" s="18">
         <v>100</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="18">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="19">
+      <c r="P8" s="22"/>
+      <c r="Q8" s="17">
         <v>3</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="18">
         <v>200</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8" s="18">
         <v>250</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="18">
         <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>36</v>
       </c>
     </row>
@@ -809,17 +1478,17 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
@@ -845,135 +1514,135 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="8"/>
+      <c r="M21" s="7"/>
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>40</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>50</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>-1</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <v>1</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <v>0</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <v>0</v>
       </c>
-      <c r="M22" s="10"/>
+      <c r="M22" s="9"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="8" t="s">
+      <c r="O22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P22" s="10">
         <v>400</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>1</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>1</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>0</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <v>0</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="8">
         <v>1</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="8">
         <v>0</v>
       </c>
-      <c r="M23" s="10"/>
+      <c r="M23" s="9"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="9">
+      <c r="P23" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <v>1</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <v>0</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <v>0</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="10">
         <v>0</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="10">
         <v>0</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="10">
         <v>1</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
-      <c r="P24" s="11">
+      <c r="P24" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="4"/>
@@ -992,7 +1661,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="4"/>
@@ -1001,53 +1670,53 @@
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <v>-600</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="10">
         <v>-800</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="10">
         <v>0</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="10">
         <v>10000</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="10">
         <v>0</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="10">
         <v>0</v>
       </c>
       <c r="M27" s="4"/>
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="8"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <v>10000</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="10">
         <v>0</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="10">
         <v>0</v>
       </c>
       <c r="J28" s="4"/>
@@ -1056,19 +1725,19 @@
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <v>-600</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="10">
         <v>-800</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="10">
         <v>0</v>
       </c>
       <c r="J29" s="4"/>
@@ -1081,24 +1750,24 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="13"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
@@ -1118,7 +1787,7 @@
       <c r="N33" s="4"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1136,7 +1805,7 @@
       </c>
     </row>
     <row r="42" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="16"/>
+      <c r="B42" s="15"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
@@ -1149,4 +1818,420 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF69A7E-040B-4495-9436-85FF2CFA931A}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="56.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F45C97-7665-4F42-896B-6D5863D80112}">
+  <dimension ref="A1:T18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q3" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>4</v>
+      </c>
+      <c r="R5" s="10">
+        <v>2</v>
+      </c>
+      <c r="S5" s="10">
+        <v>4</v>
+      </c>
+      <c r="T5" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>3</v>
+      </c>
+      <c r="R6" s="10">
+        <v>2</v>
+      </c>
+      <c r="S6" s="10">
+        <v>2</v>
+      </c>
+      <c r="T6" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>6</v>
+      </c>
+      <c r="R7" s="10">
+        <v>3</v>
+      </c>
+      <c r="S7" s="10">
+        <v>5</v>
+      </c>
+      <c r="T7" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q3:T3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08C900C-8CDA-4C1D-8BCD-4CB7EEBF4F07}">
+  <dimension ref="A1:R35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="O3" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O5" s="28"/>
+      <c r="P5" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q5" s="29"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O6" s="28"/>
+      <c r="P6" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q6" s="29"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O7" s="28"/>
+      <c r="P7" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" s="29"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O8" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O9" s="28"/>
+      <c r="P9" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q9" s="29"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O10" s="28"/>
+      <c r="P10" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q10" s="29"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O11" s="28"/>
+      <c r="P11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q11" s="29"/>
+    </row>
+    <row r="12" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O13" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N14" s="30"/>
+      <c r="O14" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="P14" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N15" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="32">
+        <v>1000</v>
+      </c>
+      <c r="P15" s="8">
+        <v>1500</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>800</v>
+      </c>
+      <c r="R15" s="8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N16" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" s="32">
+        <v>30</v>
+      </c>
+      <c r="P16" s="8">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>50</v>
+      </c>
+      <c r="R16" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A35" s="25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="O8:O11"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="Q8:Q11"/>
+    <mergeCell ref="O13:R13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>